--- a/Source_Data_Fig_7.xlsx
+++ b/Source_Data_Fig_7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielmansour/Desktop/DropletDeformationPaper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielmansour/Documents/GitHub/abp-deformable-droplet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A17AA21-266A-C64A-BA99-0573BB3B7CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938D912-E110-2A4E-8169-A37C720A4D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{5F0BFDA7-77F2-F445-9194-E20F0C59AABD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{5F0BFDA7-77F2-F445-9194-E20F0C59AABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig 7D" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
   <si>
     <t>Aspect Ratio</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Actin Concentration</t>
+  </si>
+  <si>
+    <t>0.0 µM</t>
+  </si>
+  <si>
+    <t>0.5 µM</t>
+  </si>
+  <si>
+    <t>1.5 µM</t>
   </si>
 </sst>
 </file>
@@ -232,14 +241,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +587,7 @@
   <dimension ref="A1:P1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,11 +636,11 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="1"/>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -661,9 +670,9 @@
       <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -727,14 +736,14 @@
       <c r="K5">
         <v>1.319</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1.5</v>
+      <c r="N5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -16638,7 +16647,7 @@
   <dimension ref="A1:P1003"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16716,11 +16725,11 @@
       <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -16784,14 +16793,14 @@
       <c r="K5">
         <v>1.319</v>
       </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1.5</v>
+      <c r="N5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
